--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -575,7 +575,7 @@
         <v>45440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44811</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45377.5588425926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45369</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44966.54540509259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44570.72098379629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44984.36140046296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>45937.49474537037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45867.57765046296</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>45104</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45161.33116898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45068.42262731482</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45229.67172453704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44495</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44488</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44405.32738425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44459.43425925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44379.56671296297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44530.4546875</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44496.52702546296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44441.48626157407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44530.4562037037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44764.45645833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44405.31638888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44405.31894675926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44496.5110300926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44405.32319444444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44454.86018518519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44264.36884259259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>44454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44251</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>44529</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>44490</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>44601.34255787037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>44431</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44383.5654050926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>44280.65521990741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>44251</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44507.56921296296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44507</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44416</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44416</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44240</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44728.83878472223</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44628.35012731481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44442</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44599.69461805555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44326.44194444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>44504.38268518518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44387</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44379</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44383.6131712963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44515.44268518518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44851.40596064815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44860.88715277778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44239</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>44648.3578587963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44462.69965277778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44240.59631944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44278</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44628</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44347.43119212963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44788.65715277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>44382.6675925926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>44361.39021990741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44347.44501157408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44627.34532407407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44392.4420949074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44462</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44240.57777777778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44768.83986111111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44851.49548611111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44529.29797453704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44249</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44277</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44320</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44385</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44347.43444444444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44813</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>44809.43158564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44771</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>44412</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44587.42887731481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44433</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44251</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44496</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44466.39774305555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>44487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44405</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44405</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44383.61637731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44416</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44652</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44628.36534722222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44421</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44501</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44600.45505787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44293</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>44852.48653935185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44295</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>44382.66943287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>44839.33949074074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44615</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>44622.48368055555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>44524.72388888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>44712.48467592592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44383.559375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44383.61515046296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44302.5521875</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44302.54723379629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44284.40975694444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44743.38194444445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>44841.3953125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44532.70575231482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44722.49396990741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44385</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44470.31766203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>44593.62412037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44652</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>44699.83193287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44706</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>44820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44847.55930555556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44743.42285879629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>44488</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44238</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44452.30709490741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44589.43354166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44340</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>44551</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44600.45703703703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>44431.41373842592</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44600.45854166667</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>44655.9318287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44454</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44530</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44788.66310185185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44980</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>45445.39274305556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45397.44292824074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44382</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44953</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45401.43559027778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44690.6797337963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45089.38663194444</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45251.67181712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45079</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45691.38957175926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45763</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45211.67291666667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44487.60532407407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45590.56064814814</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45411.45418981482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45099</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45040</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44384</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45606.56679398148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45191.37449074074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45392.58935185185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45022.634375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45022.64363425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45126.31585648148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>45574.45165509259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44993.56126157408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44652</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>45187.47203703703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45159.46884259259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45237.5672337963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45049</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45637.58159722222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45219</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45230.63987268518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44973.864375</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44572</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45392.58570601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>45019.67677083334</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45474.61877314815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>45238</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>45341.38545138889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44683.43862268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45559.60966435185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45757.63991898148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45757.64254629629</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45309.61168981482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45665.4533912037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45211</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45211</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45475.36554398148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45148.50620370371</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45164.64883101852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44739.37986111111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45166</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45166</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45394.41221064814</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45606.57038194445</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44978.31736111111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44978.32152777778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44896.4815625</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45665.45535879629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>44949</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45537</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45355.42155092592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45799.55665509259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45422.39476851852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45369.42106481481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44982.67675925926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44834.45706018519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44447</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44791.33793981482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45615</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44958</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45749.44238425926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45803.56060185185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45884.31863425926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45800.5805787037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44783.34944444444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45349.86459490741</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>45804.56436342592</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45804.35590277778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45887.5702662037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45615</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44487</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45887.56543981482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44593.76921296296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>45539.28254629629</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>45021.50942129629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44600.50372685185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45415</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>45888.33114583333</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>45475.36099537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45323</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45740.50475694444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45813.45756944444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44424</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45475.46671296296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45735.47873842593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45700</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45037.64929398148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44690</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45897.60010416667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45897.63128472222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45897.39096064815</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45818</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45641.74149305555</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44593.62643518519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44504.38146990741</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>45818</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>45126</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45126</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>45819.69038194444</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45901.39177083333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>45902.4652199074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44799.28053240741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45155</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>45225.62575231482</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>45902.47142361111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44424</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44893.78201388889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45741.70216435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>45905.41212962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>45904.42120370371</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44852.5103125</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45190</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>45554</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>45554</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45433</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45067</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44953</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45818</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45078.59818287037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45107</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45909.37060185185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45681.58681712963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44416</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44507</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45909.39206018519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45908</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44729.41611111111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45825.44528935185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45825.4341087963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45825.73362268518</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45909.83339120371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45826.35645833334</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45826.36921296296</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45915.56016203704</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44984.39417824074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45915</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>45915.56546296296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>45915.55810185185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45915</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45826.73186342593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45826.36164351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44507</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45826.35939814815</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>45826.3639699074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>45189.35297453704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>45048</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>45191.56679398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44619</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>45434.59488425926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>45832.40292824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>45921.83252314815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>45923.41530092592</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45832.38621527778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45036.45335648148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>45923.58583333333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>45921.69402777778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45923.41280092593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45915</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45923.41541666666</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44907.44033564815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45779.46054398148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45273.62960648148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45832.7072800926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>45211</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>45229.52315972222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>45132</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>45797.45761574074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>45841.65936342593</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>45084</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>45835.51372685185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44519</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44299</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45102</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45102</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45926.33395833334</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44839</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45930.43853009259</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45930.42856481481</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45317.44828703703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21890,7 +21890,7 @@
         <v>45930.44356481481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21947,7 +21947,7 @@
         <v>45196.6208449074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>45931.30724537037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>45929</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44979.50945601852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45716.35474537037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45841.36670138889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45776</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45776</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45805</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45716</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45716</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45938.52123842593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45938.50608796296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45938.51582175926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45938.64722222222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45841.44533564815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45841.44762731482</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45938.51219907407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45938.5327662037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45121</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45191.58287037037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44326.32891203704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44326.34681712963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45845.41</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>45939.44922453703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44979.50762731482</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>45113.63261574074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>45113.64193287037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>45477.69497685185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>45167.65172453703</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>45637.57834490741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>45524.50288194444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>45621</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45069</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>45069</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>45401.4321412037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45524.58461805555</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>45727.64369212963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>45845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>45348.45074074074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>45945.49400462963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>45945.49527777778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>45846</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>45408</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>45946.40648148148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>45946.52302083333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>45645.58637731482</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>45376.6791087963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44445</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>45947.46266203704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>45636.63569444444</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44683</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45849.46575231481</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>45629.44709490741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>45852.5841087963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45852.58133101852</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>45775.59498842592</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>45716.39373842593</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45851.91112268518</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>45851.91469907408</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45772.39609953704</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45461.49600694444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45349.90940972222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45855.72674768518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45857</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45632</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45856.47141203703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45901</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45863</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45953.54827546296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45953.3506712963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45707</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44524</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45091.60043981481</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45952.57393518519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45953.38135416667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45750.91766203703</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45790.40994212963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45952.33828703704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44897.65846064815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>45113</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44236.8744212963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44235</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45956.79643518518</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45335</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45335.67450231482</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45200.41958333334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45755.52962962963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45070.62878472222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44236.88402777778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45222</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44944</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45959</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45370.74839120371</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45400.68645833333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45021.50722222222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45960.35945601852</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45960.36740740741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>44900</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45964.42878472222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>44922.58392361111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45964.44396990741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45881.41793981481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45881.37207175926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45964.5504050926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45967.53564814815</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44781</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45966.74922453704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45466.85056712963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45966.75420138889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45967.53716435185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45967.54135416666</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45716.34990740741</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45327.39255787037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45971.42893518518</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45972.47753472222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45972.68905092592</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>45217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>45972.48898148148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>45425.51765046296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>45887.58094907407</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>44951</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>45887.57563657407</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>45976.69432870371</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29253,7 +29253,7 @@
         <v>45976.71053240741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45979.57488425926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>45979.58318287037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>45099.49768518518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45204</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45976.71296296296</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>45561</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>45392.57234953704</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>45392.58719907407</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44433</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>45258</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>45981.53516203703</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>45727.45094907407</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>45981.43377314815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30061,7 +30061,7 @@
         <v>45349.81209490741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30118,7 +30118,7 @@
         <v>45310.58383101852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>46024.32378472222</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>45740.51246527778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>45573.3758912037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>45743</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44728.36835648148</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>45258.50520833334</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>45258</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>45600.65333333334</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30631,7 +30631,7 @@
         <v>44930.5281712963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         <v>45400.62210648148</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>44698.34013888889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30802,7 +30802,7 @@
         <v>45989.48689814815</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30859,7 +30859,7 @@
         <v>45028</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30916,7 +30916,7 @@
         <v>45551.56715277778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30978,7 +30978,7 @@
         <v>45392.57063657408</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31035,7 +31035,7 @@
         <v>45531.50122685185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31092,7 +31092,7 @@
         <v>44900.36804398148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         <v>45196</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44586</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31263,7 +31263,7 @@
         <v>45161</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>45180</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44418.40890046296</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>45716.5465625</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>45048.43734953704</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>46036.46396990741</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>46036.37175925926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45727.45439814815</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>45986</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>45994.48375</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>46036.45811342593</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31895,7 +31895,7 @@
         <v>45975</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44897.54603009259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32009,7 +32009,7 @@
         <v>44235</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45722</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45722</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32180,7 +32180,7 @@
         <v>45614.54209490741</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>44455</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32299,7 +32299,7 @@
         <v>45230</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32356,7 +32356,7 @@
         <v>44977.37475694445</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32413,7 +32413,7 @@
         <v>45587.54915509259</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32470,7 +32470,7 @@
         <v>46001.36215277778</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32527,7 +32527,7 @@
         <v>45301</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32584,7 +32584,7 @@
         <v>44400.37826388889</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>45692.20631944444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>45622.56673611111</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32755,7 +32755,7 @@
         <v>46001.35974537037</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32812,7 +32812,7 @@
         <v>46044.44357638889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32869,7 +32869,7 @@
         <v>45093.61918981482</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32926,7 +32926,7 @@
         <v>44965.4890162037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32983,7 +32983,7 @@
         <v>44743.42150462963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33040,7 +33040,7 @@
         <v>44749.78425925926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33097,7 +33097,7 @@
         <v>45327.39550925926</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45327.37474537037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         <v>46006.49681712963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33268,7 +33268,7 @@
         <v>46006.49315972222</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33325,7 +33325,7 @@
         <v>45559</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>46006.49920138889</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>44273</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>46049.48033564815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>46043</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45771</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45182</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45433.48228009259</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45107.47519675926</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45007.52546296296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33900,7 +33900,7 @@
         <v>45007.53736111111</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         <v>46043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>45706.44140046297</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34071,7 +34071,7 @@
         <v>45148.51032407407</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34128,7 +34128,7 @@
         <v>45084.66810185185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>45537</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34242,7 +34242,7 @@
         <v>45281</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34299,7 +34299,7 @@
         <v>46010.54818287037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         <v>45211</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34413,7 +34413,7 @@
         <v>45021.67435185185</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34470,7 +34470,7 @@
         <v>46055.52930555555</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34527,7 +34527,7 @@
         <v>44530.5225462963</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34584,7 +34584,7 @@
         <v>45189.50841435185</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44938.51150462963</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>46055.54324074074</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>46010.56119212963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>46055.50119212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>46055.50709490741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>46055</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44851.49424768519</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44960</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35097,7 +35097,7 @@
         <v>44494</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35154,7 +35154,7 @@
         <v>44771.43327546296</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>46059.60097222222</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35268,7 +35268,7 @@
         <v>44893.48324074074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>44405.3347337963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>46058.33136574074</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35439,7 +35439,7 @@
         <v>46058.334375</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35496,7 +35496,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35553,7 +35553,7 @@
         <v>44728.36712962963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45009.36045138889</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         <v>45009.40710648148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35724,7 +35724,7 @@
         <v>45009.46947916667</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>45009</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35838,7 +35838,7 @@
         <v>46058.32930555556</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35895,7 +35895,7 @@
         <v>44911</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35952,7 +35952,7 @@
         <v>45159.4650925926</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>45514.3787037037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>45514.3809375</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36123,7 +36123,7 @@
         <v>45514.38158564815</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36180,7 +36180,7 @@
         <v>45202.46894675926</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36237,7 +36237,7 @@
         <v>44879</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>45126</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45126.36510416667</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>45126.47646990741</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36465,7 +36465,7 @@
         <v>45155</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36522,7 +36522,7 @@
         <v>44953</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36579,7 +36579,7 @@
         <v>45362.96539351852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>44665.90422453704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>44347.43795138889</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>44700.61766203704</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45743</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36864,7 +36864,7 @@
         <v>45296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>44530.53258101852</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36978,7 +36978,7 @@
         <v>44777</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>45644.45738425926</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37092,7 +37092,7 @@
         <v>45181.58443287037</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>45211</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>45636.63883101852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37263,7 +37263,7 @@
         <v>45164.64133101852</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37320,7 +37320,7 @@
         <v>45190</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>44993</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>45719</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>45719</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>45349.64855324074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>45531.38554398148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45579.47649305555</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>45126.475625</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37833,7 +37833,7 @@
         <v>45772.39268518519</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37890,7 +37890,7 @@
         <v>45205.49876157408</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
         <v>45474.4828587963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>45084</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>44404</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45126.47756944445</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38175,7 +38175,7 @@
         <v>45574.38966435185</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38232,7 +38232,7 @@
         <v>45204</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45232</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>45323.75855324074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>45098.91159722222</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38470,7 +38470,7 @@
         <v>45392.5746412037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45740.50775462963</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38584,7 +38584,7 @@
         <v>45341.37961805556</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>44995.57965277778</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45003.90380787037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>44315</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>45477.50987268519</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>44995</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38926,7 +38926,7 @@
         <v>45126</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38983,7 +38983,7 @@
         <v>45514.38017361111</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>45146.35854166667</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>44271</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>44959</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39211,7 +39211,7 @@
         <v>45068.41424768518</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>45707</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44851.4281712963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44608</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>45095</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44580.64971064815</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>45107.60460648148</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45373.48118055556</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>45161.329375</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>44984.56648148148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45252.41863425926</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>44761.65730324074</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>44802.69710648148</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>45728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>45422.47181712963</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40076,7 +40076,7 @@
         <v>44808.80826388889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40133,7 +40133,7 @@
         <v>44449</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40190,7 +40190,7 @@
         <v>45189.50895833333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40247,7 +40247,7 @@
         <v>45772.39434027778</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40304,7 +40304,7 @@
         <v>45049.61376157407</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40361,7 +40361,7 @@
         <v>44531.67679398148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40418,7 +40418,7 @@
         <v>45051</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40475,7 +40475,7 @@
         <v>45051.4380787037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40532,7 +40532,7 @@
         <v>45126.38699074074</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40589,7 +40589,7 @@
         <v>45126.47204861111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40646,7 +40646,7 @@
         <v>45323.40695601852</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40703,7 +40703,7 @@
         <v>44673.38012731481</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40760,7 +40760,7 @@
         <v>45596.75166666666</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40817,7 +40817,7 @@
         <v>44893.57989583333</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40874,7 +40874,7 @@
         <v>45668.41509259259</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40931,7 +40931,7 @@
         <v>44759.39475694444</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40988,7 +40988,7 @@
         <v>44349.62881944444</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41045,7 +41045,7 @@
         <v>44594</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41102,7 +41102,7 @@
         <v>45323.39561342593</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44852.57822916667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41216,7 +41216,7 @@
         <v>45072</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41273,7 +41273,7 @@
         <v>45149.35745370371</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41330,7 +41330,7 @@
         <v>45111.65074074074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41387,7 +41387,7 @@
         <v>45310.58832175926</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41444,7 +41444,7 @@
         <v>44239</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41501,7 +41501,7 @@
         <v>45204</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         <v>45062.65315972222</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41620,7 +41620,7 @@
         <v>44278</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41677,7 +41677,7 @@
         <v>45562.50462962963</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41734,7 +41734,7 @@
         <v>45103.68170138889</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41791,7 +41791,7 @@
         <v>45688</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41848,7 +41848,7 @@
         <v>44589.42831018518</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41905,7 +41905,7 @@
         <v>44726</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41962,7 +41962,7 @@
         <v>45742.80981481481</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42019,7 +42019,7 @@
         <v>45740.36450231481</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42076,7 +42076,7 @@
         <v>44524</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42133,7 +42133,7 @@
         <v>44728.83686342592</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42190,7 +42190,7 @@
         <v>45117</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42247,7 +42247,7 @@
         <v>45182.57702546296</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42304,7 +42304,7 @@
         <v>44816.64091435185</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>45691.394375</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42418,7 +42418,7 @@
         <v>44840</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
         <v>45595.51280092593</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42537,7 +42537,7 @@
         <v>45673.67064814815</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42594,7 +42594,7 @@
         <v>44897.66574074074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42651,7 +42651,7 @@
         <v>45273.62567129629</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42713,7 +42713,7 @@
         <v>45349.85878472222</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42770,7 +42770,7 @@
         <v>44827</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42827,7 +42827,7 @@
         <v>45092</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42884,7 +42884,7 @@
         <v>45092</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42941,7 +42941,7 @@
         <v>45296</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42998,7 +42998,7 @@
         <v>44376.82413194444</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43055,7 +43055,7 @@
         <v>44550.40824074074</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43112,7 +43112,7 @@
         <v>45076.58376157407</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43169,7 +43169,7 @@
         <v>45385.48972222222</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43226,7 +43226,7 @@
         <v>44278.36359953704</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43283,7 +43283,7 @@
         <v>45716.34835648148</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43340,7 +43340,7 @@
         <v>45515.76115740741</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43397,7 +43397,7 @@
         <v>45307.37699074074</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43454,7 +43454,7 @@
         <v>45317.44657407407</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43511,7 +43511,7 @@
         <v>45187.44503472222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43568,7 +43568,7 @@
         <v>44748.54626157408</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43625,7 +43625,7 @@
         <v>44699.83489583333</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>45400.91444444445</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>45117</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>45229.67283564815</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>45188</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43915,7 +43915,7 @@
         <v>45769.60783564814</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43972,7 +43972,7 @@
         <v>45714</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44029,7 +44029,7 @@
         <v>44769.56326388889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44086,7 +44086,7 @@
         <v>44488</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44148,7 +44148,7 @@
         <v>45769.35443287037</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44205,7 +44205,7 @@
         <v>45394</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44262,7 +44262,7 @@
         <v>44955</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>45048.435</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>45351.58540509259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>45534.66148148148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44490,7 +44490,7 @@
         <v>45215</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44547,7 +44547,7 @@
         <v>45551</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44604,7 +44604,7 @@
         <v>45777.51607638889</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44661,7 +44661,7 @@
         <v>45777.3700462963</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44718,7 +44718,7 @@
         <v>45777.37217592593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44775,7 +44775,7 @@
         <v>45523.52064814815</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44832,7 +44832,7 @@
         <v>44949.42457175926</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44889,7 +44889,7 @@
         <v>45684.66949074074</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         <v>45624.64013888889</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>45484.49533564815</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>45779.45815972222</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>45782.455</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>45107</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>45445.3777662037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45288,7 +45288,7 @@
         <v>45317.45069444444</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45345,7 +45345,7 @@
         <v>45548</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45402,7 +45402,7 @@
         <v>45415.60552083333</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45459,7 +45459,7 @@
         <v>45638</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45516,7 +45516,7 @@
         <v>45565.4407175926</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45573,7 +45573,7 @@
         <v>45386.35418981482</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>45775.59086805556</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44895</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45789.54855324074</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45801,7 +45801,7 @@
         <v>44453</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45858,7 +45858,7 @@
         <v>45481.92570601852</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45915,7 +45915,7 @@
         <v>45566.63414351852</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45972,7 +45972,7 @@
         <v>45582</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46029,7 +46029,7 @@
         <v>45609.51984953704</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46086,7 +46086,7 @@
         <v>45484.35097222222</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46143,7 +46143,7 @@
         <v>45688</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>45610.70957175926</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46257,7 +46257,7 @@
         <v>45400</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46314,7 +46314,7 @@
         <v>45455.38807870371</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46371,7 +46371,7 @@
         <v>45795.67989583333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
         <v>45797.44099537037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -575,7 +575,7 @@
         <v>45440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44811</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45377.5588425926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45369</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44238</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44966.54540509259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44570.72098379629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44984.36140046296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>45937.49474537037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45867.57765046296</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>45104</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45161.33116898148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45068.42262731482</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45229.67172453704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44495</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44488</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44405.32738425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44459.43425925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44379.56671296297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44530.4546875</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44496.52702546296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44441.48626157407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44488</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44530.4562037037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44764.45645833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44405.31638888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44405.31894675926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44496.5110300926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44405.32319444444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44454.86018518519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44264.36884259259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>44454</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44251</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>44529</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>44490</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>44601.34255787037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>44431</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44383.5654050926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>44280.65521990741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>44251</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44507.56921296296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44507</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44507</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44416</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44416</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44238</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44240</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44728.83878472223</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44691</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44628.35012731481</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44442</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44599.69461805555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44326.44194444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>44504.38268518518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44387</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44379</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44383.6131712963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44515.44268518518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44851.40596064815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44860.88715277778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44239</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>44648.3578587963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44462.69965277778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44240.59631944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44278</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44628</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44347.43119212963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44788.65715277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>44382.6675925926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>44361.39021990741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44347.44501157408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44627.34532407407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44392.4420949074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44462</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44240.57777777778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44498</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44768.83986111111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44851.49548611111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44529.29797453704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44249</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44277</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44320</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44385</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44347.43444444444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44813</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>44809.43158564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44771</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>44412</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44587.42887731481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44433</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44251</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44496</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44466.39774305555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44507</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44507</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>44487</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44405</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44405</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44383.61637731481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44416</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44652</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44628.36534722222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44421</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44501</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44600.45505787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44293</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>44852.48653935185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44295</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>44382.66943287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>44839.33949074074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>44615</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>44622.48368055555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>44524.72388888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>44712.48467592592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44383.559375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44383.61515046296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44302.5521875</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44302.54723379629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44284.40975694444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44743.38194444445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>44841.3953125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44532.70575231482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>44722.49396990741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44385</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>44470.31766203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>44593.62412037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44652</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>44699.83193287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44706</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>44820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44847.55930555556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44743.42285879629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>44488</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44238</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44452.30709490741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44589.43354166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44340</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>44551</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44600.45703703703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>44431.41373842592</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44600.45854166667</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44256</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>44655.9318287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44454</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44530</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44788.66310185185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44980</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>45445.39274305556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45397.44292824074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44382</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44953</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45401.43559027778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44690.6797337963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45089.38663194444</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45251.67181712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45079</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45691.38957175926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45763</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45211.67291666667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44487.60532407407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45590.56064814814</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45411.45418981482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45099</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45040</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44384</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45606.56679398148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45191.37449074074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45392.58935185185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45022.634375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45022.64363425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45126.31585648148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>45574.45165509259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44993.56126157408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44652</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>45187.47203703703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45159.46884259259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45237.5672337963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45049</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45637.58159722222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45219</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45230.63987268518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44973.864375</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44572</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45392.58570601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>45019.67677083334</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45474.61877314815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>45238</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>45341.38545138889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44683.43862268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45559.60966435185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45757.63991898148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45757.64254629629</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45309.61168981482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45665.4533912037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45211</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45211</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45475.36554398148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45148.50620370371</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45164.64883101852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44739.37986111111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45166</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45166</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45394.41221064814</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45606.57038194445</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44978.31736111111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44978.32152777778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44896.4815625</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45665.45535879629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>44949</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45537</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45355.42155092592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45799.55665509259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45422.39476851852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45369.42106481481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44982.67675925926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44834.45706018519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44447</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44791.33793981482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45615</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44958</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45749.44238425926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45803.56060185185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45884.31863425926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45800.5805787037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44783.34944444444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45349.86459490741</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>45804.56436342592</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45804.35590277778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45887.5702662037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45615</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44487</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45887.56543981482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44593.76921296296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>45539.28254629629</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>45021.50942129629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44600.50372685185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45415</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>45888.33114583333</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>45475.36099537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45323</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45740.50475694444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45813.45756944444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44424</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45475.46671296296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45735.47873842593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45155</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45700</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45037.64929398148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44690</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45897.60010416667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45897.63128472222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45897.39096064815</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45818</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45641.74149305555</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44593.62643518519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44504.38146990741</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>45818</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>45126</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45126</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>45819.69038194444</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45901.39177083333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>45902.4652199074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44799.28053240741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45155</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>45225.62575231482</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>45902.47142361111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44424</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44893.78201388889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45741.70216435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>45905.41212962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>45904.42120370371</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44852.5103125</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45190</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>45554</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>45554</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45433</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45067</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44953</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45818</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45078.59818287037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45107</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45909.37060185185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45681.58681712963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44416</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44507</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45909.39206018519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>45908</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44729.41611111111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45825.44528935185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45825.4341087963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45825.73362268518</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45909.83339120371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45826.35645833334</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45826.36921296296</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45915.56016203704</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>44984.39417824074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45915</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>45915.56546296296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>45915.55810185185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45915</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45826.73186342593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45826.36164351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44507</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45826.35939814815</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>45826.3639699074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>45189.35297453704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>45048</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>45191.56679398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44619</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>45434.59488425926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>45832.40292824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>45921.83252314815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>45923.41530092592</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45832.38621527778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45036.45335648148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>45923.58583333333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>45921.69402777778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45923.41280092593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45915</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45923.41541666666</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44907.44033564815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45779.46054398148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45273.62960648148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45832.7072800926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>45211</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>45229.52315972222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>45132</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>45797.45761574074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21206,7 +21206,7 @@
         <v>45841.65936342593</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
         <v>45084</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>45835.51372685185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>44519</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>44299</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45102</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45102</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45926.33395833334</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44839</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45930.43853009259</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45930.42856481481</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45317.44828703703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21890,7 +21890,7 @@
         <v>45930.44356481481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21947,7 +21947,7 @@
         <v>45196.6208449074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>45931.30724537037</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>45929</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44979.50945601852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45716.35474537037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45841.36670138889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45776</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>45776</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45805</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>45716</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>45716</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>45938.52123842593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>45938.50608796296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45938.51582175926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45938.64722222222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45841.44533564815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45841.44762731482</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45938.51219907407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45938.5327662037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45121</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45191.58287037037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>44326.32891203704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>44326.34681712963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45845.41</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>45939.44922453703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44979.50762731482</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>45113.63261574074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>45113.64193287037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>45477.69497685185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>45167.65172453703</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>45637.57834490741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>45524.50288194444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>45621</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45069</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>45069</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>45401.4321412037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45524.58461805555</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>45727.64369212963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>45845</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>45348.45074074074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>45945.49400462963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>45945.49527777778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>45846</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>45408</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>45946.40648148148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>45946.52302083333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>45645.58637731482</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>45376.6791087963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44445</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>45947.46266203704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>45636.63569444444</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44683</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45849.46575231481</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>45629.44709490741</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>45852.5841087963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45852.58133101852</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>45775.59498842592</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>45716.39373842593</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45851.91112268518</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>45851.91469907408</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45772.39609953704</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45461.49600694444</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45349.90940972222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45855.72674768518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45857</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45632</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45856.47141203703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45901</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45863</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45953.54827546296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45953.3506712963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45707</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44524</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45091.60043981481</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45952.57393518519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45953.38135416667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45750.91766203703</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45790.40994212963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45952.33828703704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44897.65846064815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>45113</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44236.8744212963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>44235</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45956.79643518518</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45335</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45335.67450231482</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45200.41958333334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45755.52962962963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45070.62878472222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44236.88402777778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45222</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44944</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45959</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45370.74839120371</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45400.68645833333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45021.50722222222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45960.35945601852</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45960.36740740741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>44900</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45964.42878472222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>44922.58392361111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45964.44396990741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>44239</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45881.41793981481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45881.37207175926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45964.5504050926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45967.53564814815</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44781</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45966.74922453704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45466.85056712963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45966.75420138889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45967.53716435185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45967.54135416666</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45716.34990740741</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45327.39255787037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45971.42893518518</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45972.47753472222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45972.68905092592</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>45217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>45972.48898148148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>45425.51765046296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>45887.58094907407</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>44951</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>45887.57563657407</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>45976.69432870371</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29253,7 +29253,7 @@
         <v>45976.71053240741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45979.57488425926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>45979.58318287037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>45099.49768518518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45204</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45976.71296296296</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>45561</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>45392.57234953704</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>45392.58719907407</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44433</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>45258</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>45981.53516203703</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>45727.45094907407</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>45981.43377314815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30061,7 +30061,7 @@
         <v>45349.81209490741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30118,7 +30118,7 @@
         <v>45310.58383101852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>46024.32378472222</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>45740.51246527778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>45573.3758912037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30346,7 +30346,7 @@
         <v>45743</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         <v>44728.36835648148</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>45258.50520833334</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>45258</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>45600.65333333334</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30631,7 +30631,7 @@
         <v>44930.5281712963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         <v>45400.62210648148</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>44698.34013888889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30802,7 +30802,7 @@
         <v>45989.48689814815</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30859,7 +30859,7 @@
         <v>45028</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30916,7 +30916,7 @@
         <v>45551.56715277778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30978,7 +30978,7 @@
         <v>45392.57063657408</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31035,7 +31035,7 @@
         <v>45531.50122685185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31092,7 +31092,7 @@
         <v>44900.36804398148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         <v>45196</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44586</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31263,7 +31263,7 @@
         <v>45161</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>45180</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44418.40890046296</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>45716.5465625</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>45048.43734953704</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>46036.46396990741</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>46036.37175925926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45727.45439814815</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>45986</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>45994.48375</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>46036.45811342593</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31895,7 +31895,7 @@
         <v>45975</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44897.54603009259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32009,7 +32009,7 @@
         <v>44235</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45722</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45722</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32180,7 +32180,7 @@
         <v>45614.54209490741</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>44455</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32299,7 +32299,7 @@
         <v>45230</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32356,7 +32356,7 @@
         <v>44977.37475694445</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32413,7 +32413,7 @@
         <v>45587.54915509259</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32470,7 +32470,7 @@
         <v>46001.36215277778</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32527,7 +32527,7 @@
         <v>45301</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32584,7 +32584,7 @@
         <v>44400.37826388889</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>45692.20631944444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>45622.56673611111</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32755,7 +32755,7 @@
         <v>46001.35974537037</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32812,7 +32812,7 @@
         <v>46044.44357638889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32869,7 +32869,7 @@
         <v>45093.61918981482</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32926,7 +32926,7 @@
         <v>44965.4890162037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32983,7 +32983,7 @@
         <v>44743.42150462963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33040,7 +33040,7 @@
         <v>44749.78425925926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33097,7 +33097,7 @@
         <v>45327.39550925926</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45327.37474537037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         <v>46006.49681712963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33268,7 +33268,7 @@
         <v>46006.49315972222</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33325,7 +33325,7 @@
         <v>45559</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>46006.49920138889</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>44273</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>46049.48033564815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>46043</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45771</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45182</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45433.48228009259</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45107.47519675926</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45007.52546296296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33900,7 +33900,7 @@
         <v>45007.53736111111</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         <v>46043</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>45706.44140046297</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34071,7 +34071,7 @@
         <v>45148.51032407407</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34128,7 +34128,7 @@
         <v>45084.66810185185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>45537</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34242,7 +34242,7 @@
         <v>45281</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34299,7 +34299,7 @@
         <v>46010.54818287037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         <v>45211</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34413,7 +34413,7 @@
         <v>45021.67435185185</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34470,7 +34470,7 @@
         <v>46055.52930555555</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34527,7 +34527,7 @@
         <v>44530.5225462963</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34584,7 +34584,7 @@
         <v>45189.50841435185</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>44938.51150462963</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>46055.54324074074</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>46010.56119212963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>46055.50119212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>46055.50709490741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>46055</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>44851.49424768519</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>44960</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35097,7 +35097,7 @@
         <v>44494</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35154,7 +35154,7 @@
         <v>44771.43327546296</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>46059.60097222222</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35268,7 +35268,7 @@
         <v>44893.48324074074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>44405.3347337963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>46058.33136574074</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35439,7 +35439,7 @@
         <v>46058.334375</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35496,7 +35496,7 @@
         <v>44518</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35553,7 +35553,7 @@
         <v>44728.36712962963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45009.36045138889</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         <v>45009.40710648148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35724,7 +35724,7 @@
         <v>45009.46947916667</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>45009</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35838,7 +35838,7 @@
         <v>46058.32930555556</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35895,7 +35895,7 @@
         <v>44911</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35952,7 +35952,7 @@
         <v>45159.4650925926</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>45514.3787037037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>45514.3809375</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36123,7 +36123,7 @@
         <v>45514.38158564815</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36180,7 +36180,7 @@
         <v>45202.46894675926</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36237,7 +36237,7 @@
         <v>44879</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>45126</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45126.36510416667</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>45126.47646990741</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36465,7 +36465,7 @@
         <v>45155</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36522,7 +36522,7 @@
         <v>44953</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36579,7 +36579,7 @@
         <v>45362.96539351852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36636,7 +36636,7 @@
         <v>44665.90422453704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         <v>44347.43795138889</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36750,7 +36750,7 @@
         <v>44700.61766203704</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45743</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36864,7 +36864,7 @@
         <v>45296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>44530.53258101852</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36978,7 +36978,7 @@
         <v>44777</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>45644.45738425926</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37092,7 +37092,7 @@
         <v>45181.58443287037</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>45211</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>45636.63883101852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37263,7 +37263,7 @@
         <v>45164.64133101852</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37320,7 +37320,7 @@
         <v>45190</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>44993</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>45719</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>45719</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>45349.64855324074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>45531.38554398148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45579.47649305555</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>45126.475625</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37833,7 +37833,7 @@
         <v>45772.39268518519</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37890,7 +37890,7 @@
         <v>45205.49876157408</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
         <v>45474.4828587963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>45084</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>44404</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45126.47756944445</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38175,7 +38175,7 @@
         <v>45574.38966435185</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38232,7 +38232,7 @@
         <v>45204</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45232</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>45323.75855324074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>45098.91159722222</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38470,7 +38470,7 @@
         <v>45392.5746412037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45740.50775462963</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38584,7 +38584,7 @@
         <v>45341.37961805556</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>44995.57965277778</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45003.90380787037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>44315</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>45477.50987268519</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>44995</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38926,7 +38926,7 @@
         <v>45126</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38983,7 +38983,7 @@
         <v>45514.38017361111</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>45146.35854166667</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>44271</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>44959</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39211,7 +39211,7 @@
         <v>45068.41424768518</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>45707</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44851.4281712963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>44608</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>45095</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>44580.64971064815</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>45107.60460648148</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45373.48118055556</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>45161.329375</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>44984.56648148148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45252.41863425926</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>44761.65730324074</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>44802.69710648148</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>45728</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>45422.47181712963</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40076,7 +40076,7 @@
         <v>44808.80826388889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40133,7 +40133,7 @@
         <v>44449</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40190,7 +40190,7 @@
         <v>45189.50895833333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40247,7 +40247,7 @@
         <v>45772.39434027778</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40304,7 +40304,7 @@
         <v>45049.61376157407</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40361,7 +40361,7 @@
         <v>44531.67679398148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40418,7 +40418,7 @@
         <v>45051</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40475,7 +40475,7 @@
         <v>45051.4380787037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40532,7 +40532,7 @@
         <v>45126.38699074074</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40589,7 +40589,7 @@
         <v>45126.47204861111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40646,7 +40646,7 @@
         <v>45323.40695601852</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40703,7 +40703,7 @@
         <v>44673.38012731481</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40760,7 +40760,7 @@
         <v>45596.75166666666</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40817,7 +40817,7 @@
         <v>44893.57989583333</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40874,7 +40874,7 @@
         <v>45668.41509259259</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40931,7 +40931,7 @@
         <v>44759.39475694444</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -40988,7 +40988,7 @@
         <v>44349.62881944444</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41045,7 +41045,7 @@
         <v>44594</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41102,7 +41102,7 @@
         <v>45323.39561342593</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>44852.57822916667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41216,7 +41216,7 @@
         <v>45072</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41273,7 +41273,7 @@
         <v>45149.35745370371</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41330,7 +41330,7 @@
         <v>45111.65074074074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41387,7 +41387,7 @@
         <v>45310.58832175926</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41444,7 +41444,7 @@
         <v>44239</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41501,7 +41501,7 @@
         <v>45204</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         <v>45062.65315972222</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41620,7 +41620,7 @@
         <v>44278</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41677,7 +41677,7 @@
         <v>45562.50462962963</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41734,7 +41734,7 @@
         <v>45103.68170138889</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41791,7 +41791,7 @@
         <v>45688</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41848,7 +41848,7 @@
         <v>44589.42831018518</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41905,7 +41905,7 @@
         <v>44726</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41962,7 +41962,7 @@
         <v>45742.80981481481</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42019,7 +42019,7 @@
         <v>45740.36450231481</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42076,7 +42076,7 @@
         <v>44524</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42133,7 +42133,7 @@
         <v>44728.83686342592</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42190,7 +42190,7 @@
         <v>45117</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42247,7 +42247,7 @@
         <v>45182.57702546296</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42304,7 +42304,7 @@
         <v>44816.64091435185</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>45691.394375</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42418,7 +42418,7 @@
         <v>44840</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42480,7 +42480,7 @@
         <v>45595.51280092593</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42537,7 +42537,7 @@
         <v>45673.67064814815</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42594,7 +42594,7 @@
         <v>44897.66574074074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42651,7 +42651,7 @@
         <v>45273.62567129629</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42713,7 +42713,7 @@
         <v>45349.85878472222</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42770,7 +42770,7 @@
         <v>44827</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42827,7 +42827,7 @@
         <v>45092</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42884,7 +42884,7 @@
         <v>45092</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42941,7 +42941,7 @@
         <v>45296</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -42998,7 +42998,7 @@
         <v>44376.82413194444</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43055,7 +43055,7 @@
         <v>44550.40824074074</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43112,7 +43112,7 @@
         <v>45076.58376157407</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43169,7 +43169,7 @@
         <v>45385.48972222222</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43226,7 +43226,7 @@
         <v>44278.36359953704</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43283,7 +43283,7 @@
         <v>45716.34835648148</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43340,7 +43340,7 @@
         <v>45515.76115740741</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43397,7 +43397,7 @@
         <v>45307.37699074074</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43454,7 +43454,7 @@
         <v>45317.44657407407</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43511,7 +43511,7 @@
         <v>45187.44503472222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43568,7 +43568,7 @@
         <v>44748.54626157408</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43625,7 +43625,7 @@
         <v>44699.83489583333</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43682,7 +43682,7 @@
         <v>45400.91444444445</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43739,7 +43739,7 @@
         <v>45117</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>45229.67283564815</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43853,7 +43853,7 @@
         <v>45188</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43915,7 +43915,7 @@
         <v>45769.60783564814</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43972,7 +43972,7 @@
         <v>45714</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44029,7 +44029,7 @@
         <v>44769.56326388889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44086,7 +44086,7 @@
         <v>44488</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44148,7 +44148,7 @@
         <v>45769.35443287037</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44205,7 +44205,7 @@
         <v>45394</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44262,7 +44262,7 @@
         <v>44955</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44319,7 +44319,7 @@
         <v>45048.435</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44376,7 +44376,7 @@
         <v>45351.58540509259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44433,7 +44433,7 @@
         <v>45534.66148148148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44490,7 +44490,7 @@
         <v>45215</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44547,7 +44547,7 @@
         <v>45551</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44604,7 +44604,7 @@
         <v>45777.51607638889</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44661,7 +44661,7 @@
         <v>45777.3700462963</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44718,7 +44718,7 @@
         <v>45777.37217592593</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44775,7 +44775,7 @@
         <v>45523.52064814815</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44832,7 +44832,7 @@
         <v>44949.42457175926</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44889,7 +44889,7 @@
         <v>45684.66949074074</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         <v>45624.64013888889</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45003,7 +45003,7 @@
         <v>45484.49533564815</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
         <v>45779.45815972222</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         <v>45782.455</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>45107</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45231,7 +45231,7 @@
         <v>45445.3777662037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45288,7 +45288,7 @@
         <v>45317.45069444444</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45345,7 +45345,7 @@
         <v>45548</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45402,7 +45402,7 @@
         <v>45415.60552083333</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45459,7 +45459,7 @@
         <v>45638</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45516,7 +45516,7 @@
         <v>45565.4407175926</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45573,7 +45573,7 @@
         <v>45386.35418981482</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>45775.59086805556</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44895</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45789.54855324074</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45801,7 +45801,7 @@
         <v>44453</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45858,7 +45858,7 @@
         <v>45481.92570601852</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45915,7 +45915,7 @@
         <v>45566.63414351852</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45972,7 +45972,7 @@
         <v>45582</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46029,7 +46029,7 @@
         <v>45609.51984953704</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46086,7 +46086,7 @@
         <v>45484.35097222222</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46143,7 +46143,7 @@
         <v>45688</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>45610.70957175926</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46257,7 +46257,7 @@
         <v>45400</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46314,7 +46314,7 @@
         <v>45455.38807870371</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46371,7 +46371,7 @@
         <v>45795.67989583333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
         <v>45797.44099537037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -575,7 +575,7 @@
         <v>45440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>44314</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44811</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45818</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45377.5588425926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45369</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44445</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44762</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44966.54540509259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44570.72098379629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44984.36140046296</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45867.57765046296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>45937.49474537037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45104</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>45335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45161.33116898148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45068.42262731482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45229.67172453704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44495</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44405.32738425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>44459.43425925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44496.52702546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>44379.56671296297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44530.4546875</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44764.45645833333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>44405.31638888889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44405.31894675926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44530.4562037037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44496.5110300926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44405.32319444444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>44454.86018518519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44264.36884259259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>44454</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44441.48626157407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>44488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>44251</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44529</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44601.34255787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44431</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44383.5654050926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44280.65521990741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44251</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44507.56921296296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44507</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44507</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44297</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44416</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44416</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44442</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44599.69461805555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44728.83878472223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44691</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44628.35012731481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44326.44194444444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44504.38268518518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44387</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44379</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44515.44268518518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44383.6131712963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44851.40596064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44860.88715277778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44462.69965277778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44648.3578587963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44523</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44278</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44628</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44347.43119212963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44788.65715277778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44382.6675925926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44416</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44361.39021990741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44347.44501157408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44405</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44627.34532407407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44392.4420949074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44462</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44498</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44768.83986111111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44851.49548611111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44529.29797453704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44249</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44277</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44320</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44385</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44347.43444444444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44813</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44771</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44809.43158564815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44412</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44587.42887731481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44433</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44251</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44496</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44507</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44487</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44405</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44383.61637731481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44652</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44416</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44628.36534722222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44466.39774305555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44600</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44421</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44501</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44600.45505787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44293</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44852.48653935185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44295</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44839.33949074074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>44382.66943287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44615</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44622.48368055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44524.72388888889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44712.48467592592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44383.559375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44383.61515046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>44302.5521875</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>44302.54723379629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44284.40975694444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>44743.38194444445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44841.3953125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44722.49396990741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44532.70575231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>44412</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>44385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44470.31766203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>44593.62412037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44699.83193287037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44652</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44820</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44706</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44847.55930555556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44743.42285879629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44488</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44452.30709490741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44589.43354166667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>44551</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44431.41373842592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>44340</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44600.45703703703</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44725</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44600.45854166667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>44256</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>44655.9318287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>44530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>44980</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>44788.66310185185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>45445.39274305556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>45397.44292824074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44690.6797337963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>45079</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>45211.67291666667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44382</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44953</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>45089.38663194444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>45251.67181712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>45691.38957175926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44487.60532407407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>45590.56064814814</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>45040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>45411.45418981482</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>45099</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>45191.37449074074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>45126.31585648148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>45401.43559027778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>45022.634375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>45022.64363425926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44384</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45606.56679398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45574.45165509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45392.58935185185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44993.56126157408</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45187.47203703703</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44652</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45637.58159722222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45159.46884259259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45237.5672337963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45219</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45049</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45230.63987268518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44572</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45392.58570601852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44973.864375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45019.67677083334</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45474.61877314815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45341.38545138889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45238</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45559.60966435185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45309.61168981482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44683.43862268519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45757.63991898148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45211</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45757.64254629629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>45665.4533912037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45148.50620370371</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45164.64883101852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45166</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45166</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44978.31736111111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>44978.32152777778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45475.36554398148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>44739.37986111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45394.41221064814</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>44896.4815625</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45606.57038194445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45355.42155092592</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45188</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45422.39476851852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44791.33793981482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44834.45706018519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>45369.42106481481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44447</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44982.67675925926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44783.34944444444</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45349.86459490741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45539.28254629629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45021.50942129629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44487</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44593.76921296296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44600.50372685185</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45740.50475694444</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45415</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45475.36099537037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44424</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45323</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45475.46671296296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>45735.47873842593</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45155</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45818</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45615</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45037.64929398148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45818</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44690</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45749.44238425926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45819.69038194444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45641.74149305555</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>44593.62643518519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45884.31863425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>44504.38146990741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>45887.5702662037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>45615</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>45126</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>45126</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>45887.56543981482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>44799.28053240741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15837,7 +15837,7 @@
         <v>45155</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45225.62575231482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>45063</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44424</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45825.44528935185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44893.78201388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45888.33114583333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45825.4341087963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45825.73362268518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>45826.35645833334</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45826.36921296296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>45826.73186342593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44852.5103125</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>45190</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45433</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>45067</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45826.36164351852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44953</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45107</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>45826.35939814815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45826.3639699074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>45700</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44729.41611111111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>45897.60010416667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>45897.63128472222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45832.40292824074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45832.38621527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45897.39096064815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44984.39417824074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45832.7072800926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44507</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45835.51372685185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45901.39177083333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44473</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45902.4652199074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>45189.35297453704</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45902.47142361111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45048</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>45191.56679398148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>45741.70216435185</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44619</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45434.59488425926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45036.45335648148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>45905.41212962963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>45904.42120370371</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44907.44033564815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>45554</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>45554</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45818</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45078.59818287037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45908</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45841.36670138889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45273.62960648148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45909.37060185185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45681.58681712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44416</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>45776</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>45776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44507</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45805</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>45909.39206018519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>45908</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>45211</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45841.44533564815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45841.44762731482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>45229.52315972222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>45132</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>45909.83339120371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>45845.41</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45621</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45915.56016203704</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45727.64369212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44519</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>45915</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44299</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45915</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45915.56546296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45915.55810185185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45102</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20484,7 +20484,7 @@
         <v>45102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>45915</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>45846</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>44839</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45849.46575231481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>45852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>45317.44828703703</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>45852.5841087963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>45196.6208449074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>45852.58133101852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>45775.59498842592</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45716.39373842593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45851.91112268518</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45851.91469907408</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45818</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45772.39609953704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45855.72674768518</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45857</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45856.47141203703</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45921.83252314815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>44979.50945601852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45923.41530092592</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>45716.35474537037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45923.58583333333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45921.69402777778</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45923.41280092593</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45915</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45923.41541666666</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>45091</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>45863</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>45779.46054398148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45716</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>45716</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>45797.45761574074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>45750.91766203703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>45841.65936342593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>45790.40994212963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>45121</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>45191.58287037037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>44326.32891203704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44326.34681712963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44979.50762731482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>45113.63261574074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45113.64193287037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45477.69497685185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45926.33395833334</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45167.65172453703</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45637.57834490741</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45524.50288194444</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45930.43853009259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45930.42856481481</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>45069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
         <v>45069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>45930.44356481481</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>45401.4321412037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>45524.58461805555</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>45931.30724537037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>45348.45074074074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>45929</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45408</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45645.58637731482</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45376.6791087963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44445</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45636.63569444444</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44683</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45629.44709490741</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45881.41793981481</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45461.49600694444</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45881.37207175926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45349.90940972222</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45632</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45938.52123842593</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45938.50608796296</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45938.51582175926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45938.64722222222</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45938.51219907407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45938.5327662037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45707</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>44524</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45091.60043981481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45939.44922453703</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>44897.65846064815</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45887.58094907407</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45113</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>45887.57563657407</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>45945.49400462963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25406,7 +25406,7 @@
         <v>45945.49527777778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>45335</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25520,7 +25520,7 @@
         <v>45335.67450231482</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>45200.41958333334</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>45755.52962962963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>45070.62878472222</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45946.40648148148</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45946.52302083333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>44944</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>45947.46266203704</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45370.74839120371</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26090,7 +26090,7 @@
         <v>45400.68645833333</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26147,7 +26147,7 @@
         <v>45021.50722222222</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         <v>44900</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26261,7 +26261,7 @@
         <v>45901</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         <v>44922.58392361111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45953.54827546296</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45953.3506712963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45952.57393518519</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45953.38135416667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45952.33828703704</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45466.85056712963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45956.79643518518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45716.34990740741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45327.39255787037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45959</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45217</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45960.35945601852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45960.36740740741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45425.51765046296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44951</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45964.42878472222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45964.44396990741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45964.5504050926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45967.53564814815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45099.49768518518</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45966.74922453704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45204</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>45561</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45966.75420138889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45392.57234953704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45392.58719907407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>45967.53716435185</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44433</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>45967.54135416666</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45727.45094907407</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45349.81209490741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45310.58383101852</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45971.42893518518</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45972.47753472222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45740.51246527778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45573.3758912037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45972.68905092592</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45972.48898148148</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45743</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45976.69432870371</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44728.36835648148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45976.71053240741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45258.50520833334</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45258</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45979.57488425926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45979.58318287037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45600.65333333334</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44930.5281712963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45400.62210648148</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45976.71296296296</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44698.34013888889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45028</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45551.56715277778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45981.53516203703</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45392.57063657408</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45981.43377314815</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45531.50122685185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>44900.36804398148</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45196</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>44586</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45161</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         <v>45180</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>44418.40890046296</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         <v>45716.5465625</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30157,7 +30157,7 @@
         <v>45048.43734953704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         <v>45989.48689814815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30271,7 +30271,7 @@
         <v>45727.45439814815</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30328,7 +30328,7 @@
         <v>44897.54603009259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>45722</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
         <v>45722</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>46036.46396990741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>46036.37175925926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>45614.54209490741</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>44455</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
         <v>45230</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>45986</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30846,7 +30846,7 @@
         <v>44977.37475694445</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>45994.48375</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30960,7 +30960,7 @@
         <v>46036.45811342593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>45975</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>45587.54915509259</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31131,7 +31131,7 @@
         <v>45301</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31188,7 +31188,7 @@
         <v>44400.37826388889</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31245,7 +31245,7 @@
         <v>45692.20631944444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>46001.36215277778</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>45622.56673611111</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>45093.61918981482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>46001.35974537037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44965.4890162037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>44743.42150462963</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>44749.78425925926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>46044.44357638889</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>45327.39550925926</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>45327.37474537037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>45559</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>44273</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31991,7 +31991,7 @@
         <v>45771</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>45182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>46006.49681712963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>46006.49315972222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>45433.48228009259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>45107.47519675926</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>45007.52546296296</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>45007.53736111111</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>46006.49920138889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32504,7 +32504,7 @@
         <v>46049.48033564815</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32561,7 +32561,7 @@
         <v>46043</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32618,7 +32618,7 @@
         <v>45706.44140046297</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32675,7 +32675,7 @@
         <v>45148.51032407407</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32732,7 +32732,7 @@
         <v>45084.66810185185</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32789,7 +32789,7 @@
         <v>45537</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45281</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>46043</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>45211</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>45021.67435185185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44530.5225462963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>45189.50841435185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         <v>44938.51150462963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44851.49424768519</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>46010.54818287037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44960</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>46055.52930555555</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>46055.54324074074</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>44494</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>46010.56119212963</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>46055.50119212963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>46055.50709490741</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>44771.43327546296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>46055</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>44893.48324074074</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>44405.3347337963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44728.36712962963</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45009.36045138889</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45009.40710648148</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45009.46947916667</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45009</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>46059.60097222222</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>46058.33136574074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>46058.334375</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44911</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45159.4650925926</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>46058.32930555556</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45514.3787037037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45514.3809375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45514.38158564815</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45202.46894675926</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>46062.45395833333</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>44879</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>46062.8015625</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45126</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>45126.36510416667</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>45126.47646990741</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>45155</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44953</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>45362.96539351852</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44665.90422453704</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44347.43795138889</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44700.61766203704</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>46024.32378472222</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>45743</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45296</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44530.53258101852</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44777</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45644.45738425926</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45181.58443287037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>46069</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>45211</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>46069</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>45636.63883101852</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>45164.64133101852</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>45190</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44993</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>46071</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36452,7 +36452,7 @@
         <v>45719</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         <v>45719</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36566,7 +36566,7 @@
         <v>46071</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>45349.64855324074</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36685,7 +36685,7 @@
         <v>46072.4416087963</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36742,7 +36742,7 @@
         <v>46071</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>46071</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>46071</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36928,7 +36928,7 @@
         <v>45531.38554398148</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -36985,7 +36985,7 @@
         <v>45579.47649305555</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37042,7 +37042,7 @@
         <v>45126.475625</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         <v>44861</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
         <v>46072.42519675926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37213,7 +37213,7 @@
         <v>45772.39268518519</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37270,7 +37270,7 @@
         <v>45205.49876157408</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37327,7 +37327,7 @@
         <v>45474.4828587963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37384,7 +37384,7 @@
         <v>45084</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>44404</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>45126.47756944445</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>45574.38966435185</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
         <v>45204</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37674,7 +37674,7 @@
         <v>45232</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37731,7 +37731,7 @@
         <v>45323.75855324074</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37793,7 +37793,7 @@
         <v>45098.91159722222</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37850,7 +37850,7 @@
         <v>45392.5746412037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37907,7 +37907,7 @@
         <v>45740.50775462963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>45341.37961805556</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>44995.57965277778</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>45003.90380787037</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>44315</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45477.50987268519</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44995</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45126</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45514.38017361111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>45146.35854166667</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>44271</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>44959</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>45068.41424768518</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38653,7 +38653,7 @@
         <v>45707</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38710,7 +38710,7 @@
         <v>44851.4281712963</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38767,7 +38767,7 @@
         <v>44608</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38824,7 +38824,7 @@
         <v>45095</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>44580.64971064815</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38938,7 +38938,7 @@
         <v>45107.60460648148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
         <v>45373.48118055556</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39052,7 +39052,7 @@
         <v>45161.329375</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
         <v>44984.56648148148</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>45252.41863425926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39228,7 +39228,7 @@
         <v>44761.65730324074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         <v>44802.69710648148</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>45728</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>45422.47181712963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>44808.80826388889</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39513,7 +39513,7 @@
         <v>44449</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39570,7 +39570,7 @@
         <v>45189.50895833333</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39627,7 +39627,7 @@
         <v>45772.39434027778</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39684,7 +39684,7 @@
         <v>45049.61376157407</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39741,7 +39741,7 @@
         <v>44531.67679398148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39798,7 +39798,7 @@
         <v>45051</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39855,7 +39855,7 @@
         <v>45051.4380787037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39912,7 +39912,7 @@
         <v>45126.38699074074</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -39969,7 +39969,7 @@
         <v>45126.47204861111</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>45323.40695601852</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40083,7 +40083,7 @@
         <v>44673.38012731481</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40140,7 +40140,7 @@
         <v>45596.75166666666</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40197,7 +40197,7 @@
         <v>44893.57989583333</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40254,7 +40254,7 @@
         <v>45668.41509259259</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40311,7 +40311,7 @@
         <v>44759.39475694444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40368,7 +40368,7 @@
         <v>44349.62881944444</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>44594</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>45323.39561342593</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>44852.57822916667</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>45072</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>45149.35745370371</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>45111.65074074074</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>45310.58832175926</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>45204</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -40886,7 +40886,7 @@
         <v>45062.65315972222</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44278</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41000,7 +41000,7 @@
         <v>45562.50462962963</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>45103.68170138889</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41114,7 +41114,7 @@
         <v>45688</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41171,7 +41171,7 @@
         <v>44589.42831018518</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>44726</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41285,7 +41285,7 @@
         <v>45742.80981481481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41342,7 +41342,7 @@
         <v>45740.36450231481</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41399,7 +41399,7 @@
         <v>44524</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>44728.83686342592</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45117</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45182.57702546296</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>44816.64091435185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45691.394375</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>44840</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41803,7 +41803,7 @@
         <v>45595.51280092593</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -41860,7 +41860,7 @@
         <v>45673.67064814815</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -41917,7 +41917,7 @@
         <v>44897.66574074074</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -41974,7 +41974,7 @@
         <v>45273.62567129629</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42036,7 +42036,7 @@
         <v>45349.85878472222</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42093,7 +42093,7 @@
         <v>44827</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42150,7 +42150,7 @@
         <v>45092</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42207,7 +42207,7 @@
         <v>45092</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42264,7 +42264,7 @@
         <v>45296</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42321,7 +42321,7 @@
         <v>44376.82413194444</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42378,7 +42378,7 @@
         <v>44550.40824074074</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42435,7 +42435,7 @@
         <v>45076.58376157407</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42492,7 +42492,7 @@
         <v>45385.48972222222</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42549,7 +42549,7 @@
         <v>44278.36359953704</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42606,7 +42606,7 @@
         <v>45716.34835648148</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42663,7 +42663,7 @@
         <v>45515.76115740741</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42720,7 +42720,7 @@
         <v>45307.37699074074</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42777,7 +42777,7 @@
         <v>45317.44657407407</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -42834,7 +42834,7 @@
         <v>45187.44503472222</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -42891,7 +42891,7 @@
         <v>44748.54626157408</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -42948,7 +42948,7 @@
         <v>44699.83489583333</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>45400.91444444445</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>45117</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43119,7 +43119,7 @@
         <v>45229.67283564815</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43176,7 +43176,7 @@
         <v>45188</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43238,7 +43238,7 @@
         <v>45769.60783564814</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43295,7 +43295,7 @@
         <v>45714</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44769.56326388889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44488</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43471,7 +43471,7 @@
         <v>45769.35443287037</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43528,7 +43528,7 @@
         <v>45394</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43585,7 +43585,7 @@
         <v>44955</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -43642,7 +43642,7 @@
         <v>45048.435</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>45351.58540509259</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>45534.66148148148</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>45215</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -43870,7 +43870,7 @@
         <v>45551</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -43927,7 +43927,7 @@
         <v>45777.51607638889</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -43984,7 +43984,7 @@
         <v>45777.3700462963</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44041,7 +44041,7 @@
         <v>45777.37217592593</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44098,7 +44098,7 @@
         <v>45523.52064814815</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>44949.42457175926</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44212,7 +44212,7 @@
         <v>45684.66949074074</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44269,7 +44269,7 @@
         <v>45624.64013888889</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44326,7 +44326,7 @@
         <v>45484.49533564815</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45779.45815972222</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45782.455</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45107</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>45445.3777662037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45317.45069444444</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45548</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45415.60552083333</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45638</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -44839,7 +44839,7 @@
         <v>45565.4407175926</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -44896,7 +44896,7 @@
         <v>45386.35418981482</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -44953,7 +44953,7 @@
         <v>45775.59086805556</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45010,7 +45010,7 @@
         <v>44895</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45067,7 +45067,7 @@
         <v>45789.54855324074</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45124,7 +45124,7 @@
         <v>44453</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45181,7 +45181,7 @@
         <v>45481.92570601852</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45238,7 +45238,7 @@
         <v>45566.63414351852</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45295,7 +45295,7 @@
         <v>45582</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45352,7 +45352,7 @@
         <v>45609.51984953704</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45484.35097222222</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45466,7 +45466,7 @@
         <v>45688</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         <v>45610.70957175926</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45580,7 +45580,7 @@
         <v>45400</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45455.38807870371</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>45795.67989583333</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -45751,7 +45751,7 @@
         <v>45797.44099537037</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -45808,7 +45808,7 @@
         <v>45665.45535879629</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -45865,7 +45865,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -45922,7 +45922,7 @@
         <v>45537</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -45979,7 +45979,7 @@
         <v>45799.55665509259</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46036,7 +46036,7 @@
         <v>44958</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46093,7 +46093,7 @@
         <v>45803.56060185185</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46150,7 +46150,7 @@
         <v>45800.5805787037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46207,7 +46207,7 @@
         <v>45804.56436342592</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46264,7 +46264,7 @@
         <v>45804.35590277778</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46321,7 +46321,7 @@
         <v>45813.45756944444</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
